--- a/one page calendar.xlsx
+++ b/one page calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjay.narayana/1pagecalendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E6BFF-9C3D-6748-A071-0F9E42C96B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420E9CC-75DE-2744-8B53-966A47A52C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{1D5C919E-8FE3-864B-967B-3787FCB68579}"/>
+    <workbookView xWindow="10360" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{1D5C919E-8FE3-864B-967B-3787FCB68579}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="19">
   <si>
     <t>Jan</t>
   </si>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,25 +549,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F4041-56AC-0C4A-961A-357CF712DAF3}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" customWidth="1"/>
     <col min="16" max="22" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="11">
         <v>2020</v>
       </c>
@@ -595,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -621,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -647,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -673,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -712,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -767,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -821,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -875,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -935,7 +937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -972,7 +974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1032,9 +1034,331 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>27</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C5"/>
+    <mergeCell ref="A15:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
